--- a/Collections/Евро/Germany/#EURO#Germany#Commemorative[2006-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Germany/#EURO#Germany#Commemorative[2006-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="143">
   <si>
     <t>Year</t>
   </si>
@@ -613,6 +613,15 @@
   </si>
   <si>
     <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>eurocollection</t>
+  </si>
+  <si>
+    <t>High convenience single table of varieties with photos</t>
+  </si>
+  <si>
+    <t>High convenience set of tables table of actual coins with photos</t>
   </si>
 </sst>
 </file>
@@ -832,7 +841,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -905,6 +914,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -943,8 +955,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1223,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2382,13 +2394,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C11" activeCellId="1" sqref="A6:C7 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2453,17 +2465,41 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2" location="svodka"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/Евро/Germany/#EURO#Germany#Commemorative[2006-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Germany/#EURO#Germany#Commemorative[2006-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -887,6 +887,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,9 +916,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1235,11 +1235,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1256,35 +1256,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2396,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2472,7 +2472,7 @@
       <c r="B6" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="19" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
       <c r="B7" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="19" t="s">
         <v>142</v>
       </c>
     </row>

--- a/Collections/Евро/Germany/#EURO#Germany#Commemorative[2006-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Germany/#EURO#Germany#Commemorative[2006-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1235,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2396,11 +2396,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" activeCellId="1" sqref="A6:C7 C11"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2493,8 +2493,8 @@
     <hyperlink ref="B4" r:id="rId2" location="svodka"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
